--- a/Pleth_Breath_Types/Currently_labeling_data/balanced_labeled_dataset.xlsx
+++ b/Pleth_Breath_Types/Currently_labeling_data/balanced_labeled_dataset.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SuperPawn/Documents/GitHub/PlethMachineLearning/Pleth_Breath_Types/Currently_labeling_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edward.luca\Github\PlethMachineLearning\Pleth_Breath_Types\Currently_labeling_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F4CEBF-A00D-3E4A-AC5F-AEDC1283B8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5600" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5595" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Balanced" sheetId="1" r:id="rId1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="1160">
   <si>
     <t>Sample</t>
   </si>
@@ -3340,12 +3339,198 @@
   </si>
   <si>
     <t>00:34:22.316000</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>1:06:01 PM.937</t>
+  </si>
+  <si>
+    <t>00:23:04.695000</t>
+  </si>
+  <si>
+    <t>00:23:02.495000</t>
+  </si>
+  <si>
+    <t>12:59:56 PM.067</t>
+  </si>
+  <si>
+    <t>00:16:58.825000</t>
+  </si>
+  <si>
+    <t>00:16:56.625000</t>
+  </si>
+  <si>
+    <t>1:00:24 PM.442</t>
+  </si>
+  <si>
+    <t>00:17:27.200000</t>
+  </si>
+  <si>
+    <t>00:17:25</t>
+  </si>
+  <si>
+    <t>1:00:24 PM.837</t>
+  </si>
+  <si>
+    <t>00:17:27.595000</t>
+  </si>
+  <si>
+    <t>00:17:25.395000</t>
+  </si>
+  <si>
+    <t>1:16:34 PM.901</t>
+  </si>
+  <si>
+    <t>00:33:37.659000</t>
+  </si>
+  <si>
+    <t>00:03:05.449000</t>
+  </si>
+  <si>
+    <t>12:59:56 PM.874</t>
+  </si>
+  <si>
+    <t>00:16:59.632000</t>
+  </si>
+  <si>
+    <t>00:16:57.432000</t>
+  </si>
+  <si>
+    <t>12:59:56 PM.469</t>
+  </si>
+  <si>
+    <t>00:16:59.227000</t>
+  </si>
+  <si>
+    <t>00:16:57.027000</t>
+  </si>
+  <si>
+    <t>12:56:38 PM.629</t>
+  </si>
+  <si>
+    <t>00:13:41.387000</t>
+  </si>
+  <si>
+    <t>00:13:39.187000</t>
+  </si>
+  <si>
+    <t>12:55:39 PM.886</t>
+  </si>
+  <si>
+    <t>00:12:42.644000</t>
+  </si>
+  <si>
+    <t>00:12:40.444000</t>
+  </si>
+  <si>
+    <t>12:59:55 PM.632</t>
+  </si>
+  <si>
+    <t>00:16:58.390000</t>
+  </si>
+  <si>
+    <t>00:16:56.190000</t>
+  </si>
+  <si>
+    <t>1:06:02 PM.669</t>
+  </si>
+  <si>
+    <t>00:23:05.427000</t>
+  </si>
+  <si>
+    <t>00:23:03.227000</t>
+  </si>
+  <si>
+    <t>1:03:53 PM.412</t>
+  </si>
+  <si>
+    <t>00:20:56.170000</t>
+  </si>
+  <si>
+    <t>00:20:53.970000</t>
+  </si>
+  <si>
+    <t>1:16:34 PM.537</t>
+  </si>
+  <si>
+    <t>00:33:37.295000</t>
+  </si>
+  <si>
+    <t>00:03:05.085000</t>
+  </si>
+  <si>
+    <t>12:55:39 PM.495</t>
+  </si>
+  <si>
+    <t>00:12:42.253000</t>
+  </si>
+  <si>
+    <t>00:12:40.053000</t>
+  </si>
+  <si>
+    <t>12:56:39 PM.031</t>
+  </si>
+  <si>
+    <t>00:13:41.789000</t>
+  </si>
+  <si>
+    <t>00:13:39.589000</t>
+  </si>
+  <si>
+    <t>1:09:16 PM.687</t>
+  </si>
+  <si>
+    <t>00:26:19.445000</t>
+  </si>
+  <si>
+    <t>00:26:17.245000</t>
+  </si>
+  <si>
+    <t>1:09:17 PM.177</t>
+  </si>
+  <si>
+    <t>00:26:19.935000</t>
+  </si>
+  <si>
+    <t>00:26:17.735000</t>
+  </si>
+  <si>
+    <t>12:58:51 PM.760</t>
+  </si>
+  <si>
+    <t>00:15:54.518000</t>
+  </si>
+  <si>
+    <t>00:15:52.318000</t>
+  </si>
+  <si>
+    <t>12:58:51 PM.399</t>
+  </si>
+  <si>
+    <t>00:15:54.157000</t>
+  </si>
+  <si>
+    <t>00:15:51.957000</t>
+  </si>
+  <si>
+    <t>1:03:53 PM.726</t>
+  </si>
+  <si>
+    <t>00:20:56.484000</t>
+  </si>
+  <si>
+    <t>00:20:54.284000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -3450,7 +3635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3495,6 +3680,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3775,26 +3966,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.1640625" style="2"/>
-    <col min="34" max="34" width="8.83203125" style="2"/>
-    <col min="36" max="36" width="9.1640625"/>
-    <col min="37" max="37" width="25.6640625" customWidth="1"/>
-    <col min="38" max="38" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="2"/>
+    <col min="34" max="34" width="8.85546875" style="2"/>
+    <col min="36" max="36" width="9.140625"/>
+    <col min="37" max="37" width="25.7109375" customWidth="1"/>
+    <col min="38" max="38" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3905,7 +4096,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5494</v>
       </c>
@@ -4018,7 +4209,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5497</v>
       </c>
@@ -4131,7 +4322,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6947</v>
       </c>
@@ -4244,7 +4435,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5328</v>
       </c>
@@ -4355,7 +4546,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5327</v>
       </c>
@@ -4466,7 +4657,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5326</v>
       </c>
@@ -4577,7 +4768,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5329</v>
       </c>
@@ -4688,7 +4879,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5332</v>
       </c>
@@ -4799,7 +4990,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5330</v>
       </c>
@@ -4912,7 +5103,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5331</v>
       </c>
@@ -5023,7 +5214,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>594</v>
       </c>
@@ -5134,7 +5325,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>191</v>
       </c>
@@ -5245,7 +5436,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>249</v>
       </c>
@@ -5356,7 +5547,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>593</v>
       </c>
@@ -5469,7 +5660,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>219</v>
       </c>
@@ -5580,7 +5771,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>601</v>
       </c>
@@ -5691,7 +5882,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>193</v>
       </c>
@@ -5802,7 +5993,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>248</v>
       </c>
@@ -5913,7 +6104,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>600</v>
       </c>
@@ -6024,7 +6215,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>246</v>
       </c>
@@ -6135,7 +6326,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6211</v>
       </c>
@@ -6248,7 +6439,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5199</v>
       </c>
@@ -6361,7 +6552,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8865</v>
       </c>
@@ -6474,7 +6665,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5309</v>
       </c>
@@ -6587,7 +6778,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3710</v>
       </c>
@@ -6700,7 +6891,7 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8252</v>
       </c>
@@ -6813,7 +7004,7 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8331</v>
       </c>
@@ -6926,7 +7117,7 @@
         <v>12.02</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8125</v>
       </c>
@@ -7037,7 +7228,7 @@
         <v>12.78</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7458</v>
       </c>
@@ -7148,7 +7339,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1083</v>
       </c>
@@ -7259,7 +7450,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3631</v>
       </c>
@@ -7372,7 +7563,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7782</v>
       </c>
@@ -7483,7 +7674,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2977</v>
       </c>
@@ -7596,7 +7787,7 @@
         <v>12.04</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>946</v>
       </c>
@@ -7707,7 +7898,7 @@
         <v>11.81</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>196</v>
       </c>
@@ -7820,7 +8011,7 @@
         <v>10.72</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4740</v>
       </c>
@@ -7933,7 +8124,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>583</v>
       </c>
@@ -8046,7 +8237,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>752</v>
       </c>
@@ -8159,7 +8350,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7940</v>
       </c>
@@ -8272,7 +8463,7 @@
         <v>12.74</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2220</v>
       </c>
@@ -8383,7 +8574,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>217</v>
       </c>
@@ -8494,7 +8685,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>604</v>
       </c>
@@ -8607,7 +8798,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>595</v>
       </c>
@@ -8720,7 +8911,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>216</v>
       </c>
@@ -8831,7 +9022,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>240</v>
       </c>
@@ -8942,7 +9133,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>608</v>
       </c>
@@ -9053,7 +9244,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>262</v>
       </c>
@@ -9164,7 +9355,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>591</v>
       </c>
@@ -9277,7 +9468,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>607</v>
       </c>
@@ -9388,7 +9579,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>563</v>
       </c>
@@ -9499,7 +9690,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>605</v>
       </c>
@@ -9612,7 +9803,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>566</v>
       </c>
@@ -9723,7 +9914,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>576</v>
       </c>
@@ -9834,7 +10025,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>243</v>
       </c>
@@ -9945,7 +10136,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>592</v>
       </c>
@@ -10056,7 +10247,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>599</v>
       </c>
@@ -10167,7 +10358,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>597</v>
       </c>
@@ -10278,7 +10469,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>215</v>
       </c>
@@ -10389,7 +10580,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>241</v>
       </c>
@@ -10500,7 +10691,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>586</v>
       </c>
@@ -10611,7 +10802,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8546</v>
       </c>
@@ -10722,7 +10913,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8861</v>
       </c>
@@ -10833,7 +11024,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8254</v>
       </c>
@@ -10944,7 +11135,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2819</v>
       </c>
@@ -11055,7 +11246,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>629</v>
       </c>
@@ -11162,7 +11353,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>625</v>
       </c>
@@ -11269,7 +11460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>630</v>
       </c>
@@ -11376,7 +11567,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>939</v>
       </c>
@@ -11483,7 +11674,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>628</v>
       </c>
@@ -11590,7 +11781,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1118</v>
       </c>
@@ -11697,7 +11888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>627</v>
       </c>
@@ -11804,7 +11995,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1176</v>
       </c>
@@ -11912,7 +12103,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>487</v>
       </c>
@@ -12019,7 +12210,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>842</v>
       </c>
@@ -12126,7 +12317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>831</v>
       </c>
@@ -12233,7 +12424,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1043</v>
       </c>
@@ -12340,7 +12531,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>626</v>
       </c>
@@ -12447,7 +12638,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>715</v>
       </c>
@@ -12554,7 +12745,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1175</v>
       </c>
@@ -12661,7 +12852,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>714</v>
       </c>
@@ -12768,7 +12959,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>961</v>
       </c>
@@ -12875,7 +13066,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>486</v>
       </c>
@@ -12982,7 +13173,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1122</v>
       </c>
@@ -13089,7 +13280,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>899</v>
       </c>
@@ -13196,7 +13387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>101</v>
       </c>
@@ -13306,7 +13497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5226</v>
       </c>
@@ -13416,7 +13607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>808</v>
       </c>
@@ -13526,7 +13717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1225</v>
       </c>
@@ -13636,7 +13827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4041</v>
       </c>
@@ -13746,7 +13937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>410</v>
       </c>
@@ -13856,7 +14047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>713</v>
       </c>
@@ -13966,7 +14157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>547</v>
       </c>
@@ -14076,7 +14267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5823</v>
       </c>
@@ -14186,7 +14377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>945</v>
       </c>
@@ -14296,7 +14487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4888</v>
       </c>
@@ -14403,7 +14594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1353</v>
       </c>
@@ -14513,7 +14704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5186</v>
       </c>
@@ -14623,7 +14814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4227</v>
       </c>
@@ -14733,7 +14924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3743</v>
       </c>
@@ -14840,7 +15031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2585</v>
       </c>
@@ -14950,7 +15141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2463</v>
       </c>
@@ -15060,7 +15251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>925</v>
       </c>
@@ -15167,7 +15358,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>967</v>
       </c>
@@ -15277,7 +15468,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>574</v>
       </c>
@@ -15384,7 +15575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>489</v>
       </c>
@@ -15491,7 +15682,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>926</v>
       </c>
@@ -15598,7 +15789,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>549</v>
       </c>
@@ -15705,7 +15896,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>723</v>
       </c>
@@ -15812,7 +16003,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1010</v>
       </c>
@@ -15919,7 +16110,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1011</v>
       </c>
@@ -16026,7 +16217,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>921</v>
       </c>
@@ -16133,7 +16324,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>644</v>
       </c>
@@ -16243,7 +16434,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>643</v>
       </c>
@@ -16353,7 +16544,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1221</v>
       </c>
@@ -16460,7 +16651,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>641</v>
       </c>
@@ -16567,7 +16758,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1008</v>
       </c>
@@ -16674,7 +16865,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>576</v>
       </c>
@@ -16781,7 +16972,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>485</v>
       </c>
@@ -16888,7 +17079,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>943</v>
       </c>
@@ -16995,7 +17186,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>521</v>
       </c>
@@ -17102,7 +17293,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1224</v>
       </c>
@@ -17209,7 +17400,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4180</v>
       </c>
@@ -17316,7 +17507,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4314</v>
       </c>
@@ -17423,7 +17614,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1640</v>
       </c>
@@ -17533,7 +17724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1334</v>
       </c>
@@ -17640,7 +17831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1912</v>
       </c>
@@ -17747,7 +17938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5324</v>
       </c>
@@ -17857,7 +18048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1476</v>
       </c>
@@ -17964,7 +18155,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1461</v>
       </c>
@@ -18071,7 +18262,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5168</v>
       </c>
@@ -18178,7 +18369,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4221</v>
       </c>
@@ -18285,7 +18476,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2107</v>
       </c>
@@ -18392,7 +18583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4576</v>
       </c>
@@ -18499,7 +18690,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2106</v>
       </c>
@@ -18606,7 +18797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1423</v>
       </c>
@@ -18713,7 +18904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2047</v>
       </c>
@@ -18820,7 +19011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1227</v>
       </c>
@@ -18927,7 +19118,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1694</v>
       </c>
@@ -19034,7 +19225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3589</v>
       </c>
@@ -19144,7 +19335,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1149</v>
       </c>
@@ -19251,7 +19442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5133</v>
       </c>
@@ -19358,7 +19549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1006</v>
       </c>
@@ -19466,7 +19657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>649</v>
       </c>
@@ -19574,7 +19765,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>647</v>
       </c>
@@ -19682,7 +19873,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1546</v>
       </c>
@@ -19790,7 +19981,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1060</v>
       </c>
@@ -19898,7 +20089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>752</v>
       </c>
@@ -20006,7 +20197,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1014</v>
       </c>
@@ -20114,7 +20305,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>746</v>
       </c>
@@ -20222,7 +20413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>651</v>
       </c>
@@ -20330,7 +20521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>330</v>
       </c>
@@ -20438,7 +20629,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1132</v>
       </c>
@@ -20546,7 +20737,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>328</v>
       </c>
@@ -20654,7 +20845,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1058</v>
       </c>
@@ -20762,7 +20953,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>646</v>
       </c>
@@ -20870,7 +21061,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>650</v>
       </c>
@@ -20978,7 +21169,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>329</v>
       </c>
@@ -21086,7 +21277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1007</v>
       </c>
@@ -21194,7 +21385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1539</v>
       </c>
@@ -21302,7 +21493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>648</v>
       </c>
@@ -21410,7 +21601,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1057</v>
       </c>
@@ -21518,7 +21709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>219</v>
       </c>
@@ -21628,7 +21819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6526</v>
       </c>
@@ -21738,7 +21929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2989</v>
       </c>
@@ -21848,7 +22039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3869</v>
       </c>
@@ -21958,7 +22149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1831</v>
       </c>
@@ -22068,7 +22259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5175</v>
       </c>
@@ -22178,7 +22369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4210</v>
       </c>
@@ -22286,7 +22477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>5595</v>
       </c>
@@ -22394,7 +22585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4739</v>
       </c>
@@ -22502,7 +22693,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6152</v>
       </c>
@@ -22610,7 +22801,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3005</v>
       </c>
@@ -22718,7 +22909,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6275</v>
       </c>
@@ -22826,7 +23017,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2905</v>
       </c>
@@ -22934,7 +23125,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6274</v>
       </c>
@@ -23042,7 +23233,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6203</v>
       </c>
@@ -23150,7 +23341,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6206</v>
       </c>
@@ -23258,7 +23449,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>4110</v>
       </c>
@@ -23366,7 +23557,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3911</v>
       </c>
@@ -23474,7 +23665,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5752</v>
       </c>
@@ -23582,7 +23773,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>6278</v>
       </c>
@@ -23690,7 +23881,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6169</v>
       </c>
@@ -23798,7 +23989,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3002</v>
       </c>
@@ -23906,7 +24097,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>5589</v>
       </c>
@@ -24014,7 +24205,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3058</v>
       </c>
@@ -24122,7 +24313,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3003</v>
       </c>
@@ -24230,7 +24421,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3913</v>
       </c>
@@ -24338,7 +24529,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>5303</v>
       </c>
@@ -24446,7 +24637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5067</v>
       </c>
@@ -24554,7 +24745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>6243</v>
       </c>
@@ -24662,7 +24853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5145</v>
       </c>
@@ -24770,7 +24961,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>463</v>
       </c>
@@ -24877,7 +25068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>464</v>
       </c>
@@ -24984,7 +25175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>465</v>
       </c>
@@ -25091,7 +25282,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>466</v>
       </c>
@@ -25198,7 +25389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>467</v>
       </c>
@@ -25305,7 +25496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2009</v>
       </c>
@@ -25412,7 +25603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2010</v>
       </c>
@@ -25519,7 +25710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2011</v>
       </c>
@@ -25626,7 +25817,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2012</v>
       </c>
@@ -25733,7 +25924,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2013</v>
       </c>
@@ -25840,7 +26031,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3589</v>
       </c>
@@ -25947,7 +26138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3590</v>
       </c>
@@ -26054,7 +26245,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3591</v>
       </c>
@@ -26161,7 +26352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3592</v>
       </c>
@@ -26268,7 +26459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3593</v>
       </c>
@@ -26375,7 +26566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2783</v>
       </c>
@@ -26482,7 +26673,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2663</v>
       </c>
@@ -26589,7 +26780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2493</v>
       </c>
@@ -26696,7 +26887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2275</v>
       </c>
@@ -26803,7 +26994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2276</v>
       </c>
@@ -26910,7 +27101,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>36</v>
       </c>
@@ -27017,7 +27208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>345</v>
       </c>
@@ -27127,7 +27318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>421</v>
       </c>
@@ -27234,7 +27425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>565</v>
       </c>
@@ -27344,7 +27535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>872</v>
       </c>
@@ -27454,7 +27645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>978</v>
       </c>
@@ -27564,7 +27755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1505</v>
       </c>
@@ -27674,7 +27865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1639</v>
       </c>
@@ -27784,7 +27975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1975</v>
       </c>
@@ -27894,7 +28085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2291</v>
       </c>
@@ -28001,7 +28192,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2588</v>
       </c>
@@ -28111,7 +28302,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2677</v>
       </c>
@@ -28221,7 +28412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2796</v>
       </c>
@@ -28331,7 +28522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>3510</v>
       </c>
@@ -28441,7 +28632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>3710</v>
       </c>
@@ -28551,7 +28742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>6464</v>
       </c>
@@ -28661,7 +28852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>6630</v>
       </c>
@@ -28771,7 +28962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>7094</v>
       </c>
@@ -28881,7 +29072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>8346</v>
       </c>
@@ -28991,7 +29182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>8929</v>
       </c>
@@ -29101,7 +29292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2339</v>
       </c>
@@ -29208,7 +29399,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2340</v>
       </c>
@@ -29315,7 +29506,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2341</v>
       </c>
@@ -29422,7 +29613,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2342</v>
       </c>
@@ -29529,7 +29720,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2343</v>
       </c>
@@ -29636,7 +29827,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2159</v>
       </c>
@@ -29743,7 +29934,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2160</v>
       </c>
@@ -29850,7 +30041,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2161</v>
       </c>
@@ -29957,7 +30148,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2163</v>
       </c>
@@ -30064,7 +30255,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1869</v>
       </c>
@@ -30171,7 +30362,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1870</v>
       </c>
@@ -30278,7 +30469,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1871</v>
       </c>
@@ -30385,7 +30576,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1872</v>
       </c>
@@ -30492,7 +30683,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1873</v>
       </c>
@@ -30599,7 +30790,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1874</v>
       </c>
@@ -30706,7 +30897,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1889</v>
       </c>
@@ -30813,7 +31004,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1890</v>
       </c>
@@ -30920,7 +31111,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2189</v>
       </c>
@@ -31027,7 +31218,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2190</v>
       </c>
@@ -31134,7 +31325,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2270</v>
       </c>
@@ -31241,7 +31432,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>3512</v>
       </c>
@@ -31348,7 +31539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>4153</v>
       </c>
@@ -31455,7 +31646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>5052</v>
       </c>
@@ -31565,7 +31756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>5484</v>
       </c>
@@ -31672,7 +31863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>5830</v>
       </c>
@@ -31779,7 +31970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5872</v>
       </c>
@@ -31886,7 +32077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>6300</v>
       </c>
@@ -31993,7 +32184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>6427</v>
       </c>
@@ -32103,7 +32294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>6429</v>
       </c>
@@ -32213,7 +32404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>6458</v>
       </c>
@@ -32320,7 +32511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>6460</v>
       </c>
@@ -32427,7 +32618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>6563</v>
       </c>
@@ -32534,7 +32725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>7184</v>
       </c>
@@ -32641,7 +32832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>7988</v>
       </c>
@@ -32748,7 +32939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>8117</v>
       </c>
@@ -32855,7 +33046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>9584</v>
       </c>
@@ -32965,7 +33156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>9808</v>
       </c>
@@ -33072,7 +33263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>10829</v>
       </c>
@@ -33182,7 +33373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>11270</v>
       </c>
@@ -33289,7 +33480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="272" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>11844</v>
       </c>
@@ -33396,7 +33587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>5320</v>
       </c>
@@ -33502,7 +33693,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>5594</v>
       </c>
@@ -33608,7 +33799,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>5595</v>
       </c>
@@ -33714,7 +33905,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>5596</v>
       </c>
@@ -33820,7 +34011,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="277" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>3862</v>
       </c>
@@ -33926,7 +34117,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="278" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>5307</v>
       </c>
@@ -34032,7 +34223,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="279" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>5597</v>
       </c>
@@ -34138,7 +34329,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="280" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>3861</v>
       </c>
@@ -34244,7 +34435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="281" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>5319</v>
       </c>
@@ -34350,7 +34541,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="282" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>5309</v>
       </c>
@@ -34456,7 +34647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="283" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>5308</v>
       </c>
@@ -34562,7 +34753,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="284" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>5310</v>
       </c>
@@ -34668,7 +34859,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="285" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>5311</v>
       </c>
@@ -34774,7 +34965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="286" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3865</v>
       </c>
@@ -34880,7 +35071,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="287" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>3863</v>
       </c>
@@ -34986,7 +35177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="288" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3864</v>
       </c>
@@ -35092,7 +35283,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="289" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2645</v>
       </c>
@@ -35198,7 +35389,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="290" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3441</v>
       </c>
@@ -35304,7 +35495,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="291" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2646</v>
       </c>
@@ -35410,7 +35601,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="292" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>3444</v>
       </c>
@@ -35516,7 +35707,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4267</v>
       </c>
@@ -35624,7 +35815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>5773</v>
       </c>
@@ -35732,7 +35923,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="295" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>6412</v>
       </c>
@@ -35838,7 +36029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="296" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>6636</v>
       </c>
@@ -35946,7 +36137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="297" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>3866</v>
       </c>
@@ -36054,7 +36245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="298" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>5829</v>
       </c>
@@ -36162,7 +36353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="299" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>8050</v>
       </c>
@@ -36270,7 +36461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="300" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>4389</v>
       </c>
@@ -36378,7 +36569,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="301" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>5729</v>
       </c>
@@ -36484,7 +36675,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="302" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>8561</v>
       </c>
@@ -36590,7 +36781,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="303" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>7298</v>
       </c>
@@ -36698,7 +36889,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="304" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>5586</v>
       </c>
@@ -36804,7 +36995,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="305" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>5585</v>
       </c>
@@ -36910,7 +37101,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="306" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>4460</v>
       </c>
@@ -37016,7 +37207,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="307" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2286</v>
       </c>
@@ -37122,7 +37313,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="308" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>4459</v>
       </c>
@@ -37228,7 +37419,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="309" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>3369</v>
       </c>
@@ -37334,7 +37525,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="310" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>4039</v>
       </c>
@@ -37440,7 +37631,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="311" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>4008</v>
       </c>
@@ -37546,7 +37737,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="312" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>4128</v>
       </c>
@@ -37652,7 +37843,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="313" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4127</v>
       </c>
@@ -37758,7 +37949,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="314" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>5486</v>
       </c>
@@ -37864,7 +38055,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="315" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5485</v>
       </c>
@@ -37970,7 +38161,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="316" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>4461</v>
       </c>
@@ -38076,7 +38267,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="317" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>4006</v>
       </c>
@@ -38182,7 +38373,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="318" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>4007</v>
       </c>
@@ -38288,7 +38479,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="319" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>5053</v>
       </c>
@@ -38394,7 +38585,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="320" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>4134</v>
       </c>
@@ -38500,7 +38691,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="321" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>856</v>
       </c>
@@ -38606,7 +38797,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="322" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>855</v>
       </c>
@@ -38712,7 +38903,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="323" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>850</v>
       </c>
@@ -38818,7 +39009,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="324" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>6129</v>
       </c>
@@ -38924,7 +39115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="325" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>8835</v>
       </c>
@@ -39030,7 +39221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="326" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>8729</v>
       </c>
@@ -39136,7 +39327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="327" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>7304</v>
       </c>
@@ -39242,7 +39433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="328" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>8883</v>
       </c>
@@ -39348,7 +39539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="329" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>5951</v>
       </c>
@@ -39454,7 +39645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="330" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>6144</v>
       </c>
@@ -39560,7 +39751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>8726</v>
       </c>
@@ -39668,7 +39859,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="332" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8757</v>
       </c>
@@ -39774,7 +39965,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="333" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>6576</v>
       </c>
@@ -39882,7 +40073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="334" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>8862</v>
       </c>
@@ -39988,7 +40179,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="335" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>8873</v>
       </c>
@@ -40094,7 +40285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="336" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>6052</v>
       </c>
@@ -40200,7 +40391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="337" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>6014</v>
       </c>
@@ -40306,7 +40497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>5857</v>
       </c>
@@ -40412,7 +40603,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="339" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>5987</v>
       </c>
@@ -40518,7 +40709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="340" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6081</v>
       </c>
@@ -40624,7 +40815,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="341" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>4350</v>
       </c>
@@ -40730,7 +40921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="342" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>6256</v>
       </c>
@@ -40836,7 +41027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="343" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>4393</v>
       </c>
@@ -40948,20 +41139,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="34" max="34" width="71.5" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="34" max="34" width="71.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -41079,7 +41270,7 @@
       <c r="AQ1" s="10"/>
       <c r="AR1" s="10"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5320</v>
       </c>
@@ -41184,7 +41375,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5594</v>
       </c>
@@ -41289,7 +41480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5595</v>
       </c>
@@ -41394,7 +41585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5596</v>
       </c>
@@ -41499,7 +41690,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3862</v>
       </c>
@@ -41604,7 +41795,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5307</v>
       </c>
@@ -41709,7 +41900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5597</v>
       </c>
@@ -41814,7 +42005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3861</v>
       </c>
@@ -41919,7 +42110,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5319</v>
       </c>
@@ -42024,7 +42215,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5309</v>
       </c>
@@ -42129,7 +42320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5308</v>
       </c>
@@ -42234,7 +42425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5310</v>
       </c>
@@ -42339,7 +42530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5311</v>
       </c>
@@ -42444,7 +42635,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3865</v>
       </c>
@@ -42549,7 +42740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3863</v>
       </c>
@@ -42654,7 +42845,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3864</v>
       </c>
@@ -42759,7 +42950,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2645</v>
       </c>
@@ -42864,7 +43055,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3441</v>
       </c>
@@ -42969,7 +43160,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2646</v>
       </c>
@@ -43074,7 +43265,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3444</v>
       </c>
@@ -43179,7 +43370,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4267</v>
       </c>
@@ -43286,7 +43477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5773</v>
       </c>
@@ -43393,7 +43584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6412</v>
       </c>
@@ -43498,7 +43689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6636</v>
       </c>
@@ -43605,7 +43796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3866</v>
       </c>
@@ -43712,7 +43903,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5829</v>
       </c>
@@ -43819,7 +44010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8050</v>
       </c>
@@ -43926,7 +44117,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4389</v>
       </c>
@@ -44033,7 +44224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5729</v>
       </c>
@@ -44138,7 +44329,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8561</v>
       </c>
@@ -44243,7 +44434,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7298</v>
       </c>
@@ -44350,7 +44541,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5586</v>
       </c>
@@ -44455,7 +44646,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5585</v>
       </c>
@@ -44560,7 +44751,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4460</v>
       </c>
@@ -44665,7 +44856,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2286</v>
       </c>
@@ -44770,7 +44961,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4459</v>
       </c>
@@ -44875,7 +45066,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3369</v>
       </c>
@@ -44980,7 +45171,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4039</v>
       </c>
@@ -45085,7 +45276,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4008</v>
       </c>
@@ -45190,7 +45381,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4128</v>
       </c>
@@ -45295,7 +45486,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4127</v>
       </c>
@@ -45400,7 +45591,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5486</v>
       </c>
@@ -45505,7 +45696,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5485</v>
       </c>
@@ -45610,7 +45801,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4461</v>
       </c>
@@ -45715,7 +45906,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4006</v>
       </c>
@@ -45820,7 +46011,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4007</v>
       </c>
@@ -45925,7 +46116,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5053</v>
       </c>
@@ -46030,7 +46221,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4134</v>
       </c>
@@ -46135,7 +46326,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>856</v>
       </c>
@@ -46240,7 +46431,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>855</v>
       </c>
@@ -46345,7 +46536,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>850</v>
       </c>
@@ -46450,7 +46641,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6129</v>
       </c>
@@ -46555,7 +46746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8835</v>
       </c>
@@ -46660,7 +46851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8729</v>
       </c>
@@ -46765,7 +46956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7304</v>
       </c>
@@ -46870,7 +47061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8883</v>
       </c>
@@ -46975,7 +47166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5951</v>
       </c>
@@ -47080,7 +47271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6144</v>
       </c>
@@ -47185,7 +47376,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8726</v>
       </c>
@@ -47292,7 +47483,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8757</v>
       </c>
@@ -47397,7 +47588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6576</v>
       </c>
@@ -47504,7 +47695,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8862</v>
       </c>
@@ -47609,7 +47800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8873</v>
       </c>
@@ -47714,7 +47905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6052</v>
       </c>
@@ -47819,7 +48010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6014</v>
       </c>
@@ -47924,7 +48115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5857</v>
       </c>
@@ -48029,7 +48220,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5987</v>
       </c>
@@ -48134,7 +48325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6081</v>
       </c>
@@ -48239,7 +48430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4350</v>
       </c>
@@ -48344,7 +48535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6256</v>
       </c>
@@ -48449,7 +48640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4393</v>
       </c>
@@ -48560,34 +48751,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD65"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="34" max="34" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="34" max="34" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -48697,7 +48888,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5494</v>
       </c>
@@ -48807,7 +48998,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5497</v>
       </c>
@@ -48917,7 +49108,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6947</v>
       </c>
@@ -49027,7 +49218,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5328</v>
       </c>
@@ -49135,7 +49326,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5327</v>
       </c>
@@ -49243,7 +49434,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5326</v>
       </c>
@@ -49351,7 +49542,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5329</v>
       </c>
@@ -49459,7 +49650,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5332</v>
       </c>
@@ -49567,7 +49758,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5330</v>
       </c>
@@ -49677,7 +49868,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5331</v>
       </c>
@@ -49785,7 +49976,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>594</v>
       </c>
@@ -49893,7 +50084,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>191</v>
       </c>
@@ -50001,7 +50192,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>249</v>
       </c>
@@ -50109,7 +50300,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>593</v>
       </c>
@@ -50219,7 +50410,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>219</v>
       </c>
@@ -50327,7 +50518,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>601</v>
       </c>
@@ -50435,7 +50626,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>193</v>
       </c>
@@ -50543,7 +50734,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>248</v>
       </c>
@@ -50651,7 +50842,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>600</v>
       </c>
@@ -50759,7 +50950,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>246</v>
       </c>
@@ -50867,7 +51058,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6211</v>
       </c>
@@ -50977,7 +51168,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5199</v>
       </c>
@@ -51087,7 +51278,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8865</v>
       </c>
@@ -51197,7 +51388,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5309</v>
       </c>
@@ -51307,7 +51498,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3710</v>
       </c>
@@ -51417,7 +51608,7 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8252</v>
       </c>
@@ -51527,7 +51718,7 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8331</v>
       </c>
@@ -51637,7 +51828,7 @@
         <v>12.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8125</v>
       </c>
@@ -51745,7 +51936,7 @@
         <v>12.78</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7458</v>
       </c>
@@ -51853,7 +52044,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1083</v>
       </c>
@@ -51961,7 +52152,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3631</v>
       </c>
@@ -52071,7 +52262,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7782</v>
       </c>
@@ -52179,7 +52370,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2977</v>
       </c>
@@ -52289,7 +52480,7 @@
         <v>12.04</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>946</v>
       </c>
@@ -52397,7 +52588,7 @@
         <v>11.81</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>196</v>
       </c>
@@ -52507,7 +52698,7 @@
         <v>10.72</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4740</v>
       </c>
@@ -52617,7 +52808,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>583</v>
       </c>
@@ -52727,7 +52918,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>752</v>
       </c>
@@ -52837,7 +53028,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7940</v>
       </c>
@@ -52947,7 +53138,7 @@
         <v>12.74</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2220</v>
       </c>
@@ -53055,7 +53246,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>217</v>
       </c>
@@ -53163,7 +53354,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>604</v>
       </c>
@@ -53273,7 +53464,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>595</v>
       </c>
@@ -53383,7 +53574,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>216</v>
       </c>
@@ -53491,7 +53682,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>240</v>
       </c>
@@ -53599,7 +53790,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>608</v>
       </c>
@@ -53707,7 +53898,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>262</v>
       </c>
@@ -53815,7 +54006,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>591</v>
       </c>
@@ -53925,7 +54116,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>607</v>
       </c>
@@ -54033,7 +54224,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>563</v>
       </c>
@@ -54141,7 +54332,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>605</v>
       </c>
@@ -54251,7 +54442,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>566</v>
       </c>
@@ -54359,7 +54550,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>576</v>
       </c>
@@ -54467,7 +54658,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>243</v>
       </c>
@@ -54575,7 +54766,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>592</v>
       </c>
@@ -54683,7 +54874,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>599</v>
       </c>
@@ -54791,7 +54982,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>597</v>
       </c>
@@ -54899,7 +55090,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>215</v>
       </c>
@@ -55007,7 +55198,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>241</v>
       </c>
@@ -55115,7 +55306,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>586</v>
       </c>
@@ -55223,7 +55414,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8546</v>
       </c>
@@ -55331,7 +55522,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8861</v>
       </c>
@@ -55439,7 +55630,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8254</v>
       </c>
@@ -55547,7 +55738,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2819</v>
       </c>
@@ -55661,34 +55852,2228 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2865</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2">
+        <v>2865</v>
+      </c>
+      <c r="H2">
+        <v>7319</v>
+      </c>
+      <c r="I2">
+        <v>7319</v>
+      </c>
+      <c r="J2">
+        <v>160</v>
+      </c>
+      <c r="K2">
+        <v>413</v>
+      </c>
+      <c r="L2">
+        <v>22.22</v>
+      </c>
+      <c r="M2">
+        <v>12.67</v>
+      </c>
+      <c r="N2">
+        <v>2.62</v>
+      </c>
+      <c r="O2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="P2">
+        <v>249</v>
+      </c>
+      <c r="Q2">
+        <v>275</v>
+      </c>
+      <c r="R2">
+        <v>573</v>
+      </c>
+      <c r="S2">
+        <v>105</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>29</v>
+      </c>
+      <c r="V2">
+        <v>0.38</v>
+      </c>
+      <c r="W2">
+        <v>6.01</v>
+      </c>
+      <c r="X2">
+        <v>82.8</v>
+      </c>
+      <c r="Y2">
+        <v>24.88</v>
+      </c>
+      <c r="Z2">
+        <v>37</v>
+      </c>
+      <c r="AA2">
+        <v>1019</v>
+      </c>
+      <c r="AB2">
+        <v>13.46</v>
+      </c>
+      <c r="AC2">
+        <v>5611</v>
+      </c>
+      <c r="AD2">
+        <v>100</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>2865</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2299</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3">
+        <v>2299</v>
+      </c>
+      <c r="H3">
+        <v>5665</v>
+      </c>
+      <c r="I3">
+        <v>5665</v>
+      </c>
+      <c r="J3">
+        <v>146</v>
+      </c>
+      <c r="K3">
+        <v>298</v>
+      </c>
+      <c r="L3">
+        <v>30.85</v>
+      </c>
+      <c r="M3">
+        <v>14.56</v>
+      </c>
+      <c r="N3">
+        <v>3.38</v>
+      </c>
+      <c r="O3">
+        <v>2.85</v>
+      </c>
+      <c r="P3">
+        <v>173</v>
+      </c>
+      <c r="Q3">
+        <v>456</v>
+      </c>
+      <c r="R3">
+        <v>444</v>
+      </c>
+      <c r="S3">
+        <v>135</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>19</v>
+      </c>
+      <c r="V3">
+        <v>0.34</v>
+      </c>
+      <c r="W3">
+        <v>8.66</v>
+      </c>
+      <c r="X3">
+        <v>84</v>
+      </c>
+      <c r="Y3">
+        <v>24.63</v>
+      </c>
+      <c r="Z3">
+        <v>37</v>
+      </c>
+      <c r="AA3">
+        <v>1019</v>
+      </c>
+      <c r="AB3">
+        <v>13.31</v>
+      </c>
+      <c r="AC3">
+        <v>4437</v>
+      </c>
+      <c r="AD3">
+        <v>100</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>2299</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2332</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4">
+        <v>2332</v>
+      </c>
+      <c r="H4">
+        <v>5775</v>
+      </c>
+      <c r="I4">
+        <v>5775</v>
+      </c>
+      <c r="J4">
+        <v>140</v>
+      </c>
+      <c r="K4">
+        <v>283</v>
+      </c>
+      <c r="L4">
+        <v>28.02</v>
+      </c>
+      <c r="M4">
+        <v>14.29</v>
+      </c>
+      <c r="N4">
+        <v>2.65</v>
+      </c>
+      <c r="O4">
+        <v>3.04</v>
+      </c>
+      <c r="P4">
+        <v>218</v>
+      </c>
+      <c r="Q4">
+        <v>376</v>
+      </c>
+      <c r="R4">
+        <v>423</v>
+      </c>
+      <c r="S4">
+        <v>142</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>18</v>
+      </c>
+      <c r="V4">
+        <v>0.15</v>
+      </c>
+      <c r="W4">
+        <v>10.35</v>
+      </c>
+      <c r="X4">
+        <v>84.7</v>
+      </c>
+      <c r="Y4">
+        <v>24.64</v>
+      </c>
+      <c r="Z4">
+        <v>37</v>
+      </c>
+      <c r="AA4">
+        <v>1019</v>
+      </c>
+      <c r="AB4">
+        <v>13.36</v>
+      </c>
+      <c r="AC4">
+        <v>4518</v>
+      </c>
+      <c r="AD4">
+        <v>100</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>2332</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2333</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5">
+        <v>2333</v>
+      </c>
+      <c r="H5">
+        <v>5776</v>
+      </c>
+      <c r="I5">
+        <v>5776</v>
+      </c>
+      <c r="J5">
+        <v>143</v>
+      </c>
+      <c r="K5">
+        <v>278</v>
+      </c>
+      <c r="L5">
+        <v>30.47</v>
+      </c>
+      <c r="M5">
+        <v>15.52</v>
+      </c>
+      <c r="N5">
+        <v>2.89</v>
+      </c>
+      <c r="O5">
+        <v>2.94</v>
+      </c>
+      <c r="P5">
+        <v>209</v>
+      </c>
+      <c r="Q5">
+        <v>412</v>
+      </c>
+      <c r="R5">
+        <v>421</v>
+      </c>
+      <c r="S5">
+        <v>143</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>19</v>
+      </c>
+      <c r="V5">
+        <v>0.17</v>
+      </c>
+      <c r="W5">
+        <v>8.82</v>
+      </c>
+      <c r="X5">
+        <v>84.7</v>
+      </c>
+      <c r="Y5">
+        <v>24.64</v>
+      </c>
+      <c r="Z5">
+        <v>37</v>
+      </c>
+      <c r="AA5">
+        <v>1019</v>
+      </c>
+      <c r="AB5">
+        <v>13.36</v>
+      </c>
+      <c r="AC5">
+        <v>4521</v>
+      </c>
+      <c r="AD5">
+        <v>100</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>2333</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3756</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6">
+        <v>3756</v>
+      </c>
+      <c r="H6">
+        <v>9521</v>
+      </c>
+      <c r="I6">
+        <v>9521</v>
+      </c>
+      <c r="J6">
+        <v>127</v>
+      </c>
+      <c r="K6">
+        <v>277</v>
+      </c>
+      <c r="L6">
+        <v>25.91</v>
+      </c>
+      <c r="M6">
+        <v>12.99</v>
+      </c>
+      <c r="N6">
+        <v>2.29</v>
+      </c>
+      <c r="O6">
+        <v>2.09</v>
+      </c>
+      <c r="P6">
+        <v>180</v>
+      </c>
+      <c r="Q6">
+        <v>340</v>
+      </c>
+      <c r="R6">
+        <v>404</v>
+      </c>
+      <c r="S6">
+        <v>149</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>23</v>
+      </c>
+      <c r="V6">
+        <v>0.27</v>
+      </c>
+      <c r="W6">
+        <v>5.98</v>
+      </c>
+      <c r="X6">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="Y6">
+        <v>25.23</v>
+      </c>
+      <c r="Z6">
+        <v>37</v>
+      </c>
+      <c r="AA6">
+        <v>1019</v>
+      </c>
+      <c r="AB6">
+        <v>12.81</v>
+      </c>
+      <c r="AC6">
+        <v>7722</v>
+      </c>
+      <c r="AD6">
+        <v>100</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>3756</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2301</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7">
+        <v>2301</v>
+      </c>
+      <c r="H7">
+        <v>5667</v>
+      </c>
+      <c r="I7">
+        <v>5667</v>
+      </c>
+      <c r="J7">
+        <v>138</v>
+      </c>
+      <c r="K7">
+        <v>277</v>
+      </c>
+      <c r="L7">
+        <v>28.53</v>
+      </c>
+      <c r="M7">
+        <v>15.12</v>
+      </c>
+      <c r="N7">
+        <v>2.72</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>206</v>
+      </c>
+      <c r="Q7">
+        <v>393</v>
+      </c>
+      <c r="R7">
+        <v>415</v>
+      </c>
+      <c r="S7">
+        <v>145</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>0.18</v>
+      </c>
+      <c r="W7">
+        <v>10.25</v>
+      </c>
+      <c r="X7">
+        <v>84</v>
+      </c>
+      <c r="Y7">
+        <v>24.63</v>
+      </c>
+      <c r="Z7">
+        <v>37</v>
+      </c>
+      <c r="AA7">
+        <v>1019</v>
+      </c>
+      <c r="AB7">
+        <v>13.31</v>
+      </c>
+      <c r="AC7">
+        <v>4442</v>
+      </c>
+      <c r="AD7">
+        <v>100</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>2301</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2300</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8">
+        <v>2300</v>
+      </c>
+      <c r="H8">
+        <v>5666</v>
+      </c>
+      <c r="I8">
+        <v>5666</v>
+      </c>
+      <c r="J8">
+        <v>125</v>
+      </c>
+      <c r="K8">
+        <v>273</v>
+      </c>
+      <c r="L8">
+        <v>30.81</v>
+      </c>
+      <c r="M8">
+        <v>15.72</v>
+      </c>
+      <c r="N8">
+        <v>2.67</v>
+      </c>
+      <c r="O8">
+        <v>2.73</v>
+      </c>
+      <c r="P8">
+        <v>194</v>
+      </c>
+      <c r="Q8">
+        <v>402</v>
+      </c>
+      <c r="R8">
+        <v>398</v>
+      </c>
+      <c r="S8">
+        <v>151</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>21</v>
+      </c>
+      <c r="V8">
+        <v>0.21</v>
+      </c>
+      <c r="W8">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="X8">
+        <v>84</v>
+      </c>
+      <c r="Y8">
+        <v>24.63</v>
+      </c>
+      <c r="Z8">
+        <v>37</v>
+      </c>
+      <c r="AA8">
+        <v>1019</v>
+      </c>
+      <c r="AB8">
+        <v>13.31</v>
+      </c>
+      <c r="AC8">
+        <v>4439</v>
+      </c>
+      <c r="AD8">
+        <v>100</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>2300</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1925</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9">
+        <v>1925</v>
+      </c>
+      <c r="H9">
+        <v>4644</v>
+      </c>
+      <c r="I9">
+        <v>4644</v>
+      </c>
+      <c r="J9">
+        <v>129</v>
+      </c>
+      <c r="K9">
+        <v>267</v>
+      </c>
+      <c r="L9">
+        <v>30.04</v>
+      </c>
+      <c r="M9">
+        <v>15.5</v>
+      </c>
+      <c r="N9">
+        <v>2.66</v>
+      </c>
+      <c r="O9">
+        <v>2.89</v>
+      </c>
+      <c r="P9">
+        <v>194</v>
+      </c>
+      <c r="Q9">
+        <v>403</v>
+      </c>
+      <c r="R9">
+        <v>396</v>
+      </c>
+      <c r="S9">
+        <v>152</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>21</v>
+      </c>
+      <c r="V9">
+        <v>0.19</v>
+      </c>
+      <c r="W9">
+        <v>12.76</v>
+      </c>
+      <c r="X9">
+        <v>77.5</v>
+      </c>
+      <c r="Y9">
+        <v>24.09</v>
+      </c>
+      <c r="Z9">
+        <v>37</v>
+      </c>
+      <c r="AA9">
+        <v>1019</v>
+      </c>
+      <c r="AB9">
+        <v>12.6</v>
+      </c>
+      <c r="AC9">
+        <v>3760</v>
+      </c>
+      <c r="AD9">
+        <v>100</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1925</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1854</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10">
+        <v>1854</v>
+      </c>
+      <c r="H10">
+        <v>4438</v>
+      </c>
+      <c r="I10">
+        <v>4438</v>
+      </c>
+      <c r="J10">
+        <v>141</v>
+      </c>
+      <c r="K10">
+        <v>267</v>
+      </c>
+      <c r="L10">
+        <v>28.36</v>
+      </c>
+      <c r="M10">
+        <v>16.52</v>
+      </c>
+      <c r="N10">
+        <v>2.89</v>
+      </c>
+      <c r="O10">
+        <v>2.86</v>
+      </c>
+      <c r="P10">
+        <v>192</v>
+      </c>
+      <c r="Q10">
+        <v>425</v>
+      </c>
+      <c r="R10">
+        <v>408</v>
+      </c>
+      <c r="S10">
+        <v>147</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>19</v>
+      </c>
+      <c r="V10">
+        <v>0.23</v>
+      </c>
+      <c r="W10">
+        <v>6.92</v>
+      </c>
+      <c r="X10">
+        <v>79.7</v>
+      </c>
+      <c r="Y10">
+        <v>23.97</v>
+      </c>
+      <c r="Z10">
+        <v>37</v>
+      </c>
+      <c r="AA10">
+        <v>1019</v>
+      </c>
+      <c r="AB10">
+        <v>12.61</v>
+      </c>
+      <c r="AC10">
+        <v>3606</v>
+      </c>
+      <c r="AD10">
+        <v>100</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>1854</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2298</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11">
+        <v>2298</v>
+      </c>
+      <c r="H11">
+        <v>5664</v>
+      </c>
+      <c r="I11">
+        <v>5664</v>
+      </c>
+      <c r="J11">
+        <v>159</v>
+      </c>
+      <c r="K11">
+        <v>264</v>
+      </c>
+      <c r="L11">
+        <v>27.93</v>
+      </c>
+      <c r="M11">
+        <v>16.16</v>
+      </c>
+      <c r="N11">
+        <v>3.33</v>
+      </c>
+      <c r="O11">
+        <v>2.82</v>
+      </c>
+      <c r="P11">
+        <v>151</v>
+      </c>
+      <c r="Q11">
+        <v>472</v>
+      </c>
+      <c r="R11">
+        <v>423</v>
+      </c>
+      <c r="S11">
+        <v>142</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>0.43</v>
+      </c>
+      <c r="W11">
+        <v>10.75</v>
+      </c>
+      <c r="X11">
+        <v>83.4</v>
+      </c>
+      <c r="Y11">
+        <v>24.61</v>
+      </c>
+      <c r="Z11">
+        <v>37</v>
+      </c>
+      <c r="AA11">
+        <v>1019</v>
+      </c>
+      <c r="AB11">
+        <v>13.27</v>
+      </c>
+      <c r="AC11">
+        <v>4433</v>
+      </c>
+      <c r="AD11">
+        <v>100</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>2298</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2866</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12">
+        <v>2866</v>
+      </c>
+      <c r="H12">
+        <v>7320</v>
+      </c>
+      <c r="I12">
+        <v>7320</v>
+      </c>
+      <c r="J12">
+        <v>127</v>
+      </c>
+      <c r="K12">
+        <v>262</v>
+      </c>
+      <c r="L12">
+        <v>25.31</v>
+      </c>
+      <c r="M12">
+        <v>10.59</v>
+      </c>
+      <c r="N12">
+        <v>2.16</v>
+      </c>
+      <c r="O12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P12">
+        <v>191</v>
+      </c>
+      <c r="Q12">
+        <v>332</v>
+      </c>
+      <c r="R12">
+        <v>389</v>
+      </c>
+      <c r="S12">
+        <v>154</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>17</v>
+      </c>
+      <c r="V12">
+        <v>0.16</v>
+      </c>
+      <c r="W12">
+        <v>7.86</v>
+      </c>
+      <c r="X12">
+        <v>82.8</v>
+      </c>
+      <c r="Y12">
+        <v>24.88</v>
+      </c>
+      <c r="Z12">
+        <v>37</v>
+      </c>
+      <c r="AA12">
+        <v>1019</v>
+      </c>
+      <c r="AB12">
+        <v>13.46</v>
+      </c>
+      <c r="AC12">
+        <v>5613</v>
+      </c>
+      <c r="AD12">
+        <v>100</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>2866</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2642</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>2642</v>
+      </c>
+      <c r="H13">
+        <v>6837</v>
+      </c>
+      <c r="I13">
+        <v>6837</v>
+      </c>
+      <c r="J13">
+        <v>134</v>
+      </c>
+      <c r="K13">
+        <v>256</v>
+      </c>
+      <c r="L13">
+        <v>24.81</v>
+      </c>
+      <c r="M13">
+        <v>13.47</v>
+      </c>
+      <c r="N13">
+        <v>2.39</v>
+      </c>
+      <c r="O13">
+        <v>2.35</v>
+      </c>
+      <c r="P13">
+        <v>188</v>
+      </c>
+      <c r="Q13">
+        <v>367</v>
+      </c>
+      <c r="R13">
+        <v>390</v>
+      </c>
+      <c r="S13">
+        <v>154</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>18</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>8</v>
+      </c>
+      <c r="X13">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="Y13">
+        <v>24.7</v>
+      </c>
+      <c r="Z13">
+        <v>37</v>
+      </c>
+      <c r="AA13">
+        <v>1019</v>
+      </c>
+      <c r="AB13">
+        <v>13.17</v>
+      </c>
+      <c r="AC13">
+        <v>5132</v>
+      </c>
+      <c r="AD13">
+        <v>100</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>2642</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3755</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14">
+        <v>3755</v>
+      </c>
+      <c r="H14">
+        <v>9518</v>
+      </c>
+      <c r="I14">
+        <v>9520</v>
+      </c>
+      <c r="J14">
+        <v>119</v>
+      </c>
+      <c r="K14">
+        <v>254</v>
+      </c>
+      <c r="L14">
+        <v>23.91</v>
+      </c>
+      <c r="M14">
+        <v>15.42</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2.38</v>
+      </c>
+      <c r="P14">
+        <v>174</v>
+      </c>
+      <c r="Q14">
+        <v>321</v>
+      </c>
+      <c r="R14">
+        <v>373</v>
+      </c>
+      <c r="S14">
+        <v>161</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>26</v>
+      </c>
+      <c r="V14">
+        <v>0.3</v>
+      </c>
+      <c r="W14">
+        <v>11.16</v>
+      </c>
+      <c r="X14">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="Y14">
+        <v>25.23</v>
+      </c>
+      <c r="Z14">
+        <v>37</v>
+      </c>
+      <c r="AA14">
+        <v>1019</v>
+      </c>
+      <c r="AB14">
+        <v>12.81</v>
+      </c>
+      <c r="AC14">
+        <v>7720</v>
+      </c>
+      <c r="AD14">
+        <v>33</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>3755</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1853</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15">
+        <v>1853</v>
+      </c>
+      <c r="H15">
+        <v>4435</v>
+      </c>
+      <c r="I15">
+        <v>4437</v>
+      </c>
+      <c r="J15">
+        <v>151</v>
+      </c>
+      <c r="K15">
+        <v>243</v>
+      </c>
+      <c r="L15">
+        <v>26.74</v>
+      </c>
+      <c r="M15">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="N15">
+        <v>2.85</v>
+      </c>
+      <c r="O15">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="P15">
+        <v>144</v>
+      </c>
+      <c r="Q15">
+        <v>435</v>
+      </c>
+      <c r="R15">
+        <v>394</v>
+      </c>
+      <c r="S15">
+        <v>152</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>18</v>
+      </c>
+      <c r="V15">
+        <v>0.47</v>
+      </c>
+      <c r="W15">
+        <v>7.73</v>
+      </c>
+      <c r="X15">
+        <v>79.7</v>
+      </c>
+      <c r="Y15">
+        <v>23.97</v>
+      </c>
+      <c r="Z15">
+        <v>37</v>
+      </c>
+      <c r="AA15">
+        <v>1019</v>
+      </c>
+      <c r="AB15">
+        <v>12.61</v>
+      </c>
+      <c r="AC15">
+        <v>3603</v>
+      </c>
+      <c r="AD15">
+        <v>33</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>1853</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="9">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1926</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16">
+        <v>1926</v>
+      </c>
+      <c r="H16">
+        <v>4645</v>
+      </c>
+      <c r="I16">
+        <v>4645</v>
+      </c>
+      <c r="J16">
+        <v>130</v>
+      </c>
+      <c r="K16">
+        <v>237</v>
+      </c>
+      <c r="L16">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>17.98</v>
+      </c>
+      <c r="N16">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="O16">
+        <v>2.9</v>
+      </c>
+      <c r="P16">
+        <v>187</v>
+      </c>
+      <c r="Q16">
+        <v>406</v>
+      </c>
+      <c r="R16">
+        <v>367</v>
+      </c>
+      <c r="S16">
+        <v>163</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
+        <v>15</v>
+      </c>
+      <c r="V16">
+        <v>0.17</v>
+      </c>
+      <c r="W16">
+        <v>13.52</v>
+      </c>
+      <c r="X16">
+        <v>77.5</v>
+      </c>
+      <c r="Y16">
+        <v>24.09</v>
+      </c>
+      <c r="Z16">
+        <v>37</v>
+      </c>
+      <c r="AA16">
+        <v>1019</v>
+      </c>
+      <c r="AB16">
+        <v>12.6</v>
+      </c>
+      <c r="AC16">
+        <v>3762</v>
+      </c>
+      <c r="AD16">
+        <v>100</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>1926</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3111</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17">
+        <v>3111</v>
+      </c>
+      <c r="H17">
+        <v>7997</v>
+      </c>
+      <c r="I17">
+        <v>7997</v>
+      </c>
+      <c r="J17">
+        <v>146</v>
+      </c>
+      <c r="K17">
+        <v>230</v>
+      </c>
+      <c r="L17">
+        <v>25.37</v>
+      </c>
+      <c r="M17">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.66</v>
+      </c>
+      <c r="O17">
+        <v>2.88</v>
+      </c>
+      <c r="P17">
+        <v>158</v>
+      </c>
+      <c r="Q17">
+        <v>424</v>
+      </c>
+      <c r="R17">
+        <v>376</v>
+      </c>
+      <c r="S17">
+        <v>160</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>22</v>
+      </c>
+      <c r="V17">
+        <v>0.32</v>
+      </c>
+      <c r="W17">
+        <v>11.99</v>
+      </c>
+      <c r="X17">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="Y17">
+        <v>25.23</v>
+      </c>
+      <c r="Z17">
+        <v>37</v>
+      </c>
+      <c r="AA17">
+        <v>1019</v>
+      </c>
+      <c r="AB17">
+        <v>13.54</v>
+      </c>
+      <c r="AC17">
+        <v>6197</v>
+      </c>
+      <c r="AD17">
+        <v>100</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>3111</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18">
+        <v>3112</v>
+      </c>
+      <c r="H18">
+        <v>7998</v>
+      </c>
+      <c r="I18">
+        <v>7998</v>
+      </c>
+      <c r="J18">
+        <v>141</v>
+      </c>
+      <c r="K18">
+        <v>226</v>
+      </c>
+      <c r="L18">
+        <v>28.4</v>
+      </c>
+      <c r="M18">
+        <v>14.94</v>
+      </c>
+      <c r="N18">
+        <v>2.74</v>
+      </c>
+      <c r="O18">
+        <v>2.42</v>
+      </c>
+      <c r="P18">
+        <v>150</v>
+      </c>
+      <c r="Q18">
+        <v>449</v>
+      </c>
+      <c r="R18">
+        <v>367</v>
+      </c>
+      <c r="S18">
+        <v>163</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>19</v>
+      </c>
+      <c r="V18">
+        <v>0.27</v>
+      </c>
+      <c r="W18">
+        <v>12.83</v>
+      </c>
+      <c r="X18">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="Y18">
+        <v>25.23</v>
+      </c>
+      <c r="Z18">
+        <v>37</v>
+      </c>
+      <c r="AA18">
+        <v>1019</v>
+      </c>
+      <c r="AB18">
+        <v>13.54</v>
+      </c>
+      <c r="AC18">
+        <v>6199</v>
+      </c>
+      <c r="AD18">
+        <v>100</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>3112</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2198</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19">
+        <v>2198</v>
+      </c>
+      <c r="H19">
+        <v>5350</v>
+      </c>
+      <c r="I19">
+        <v>5350</v>
+      </c>
+      <c r="J19">
+        <v>142</v>
+      </c>
+      <c r="K19">
+        <v>225</v>
+      </c>
+      <c r="L19">
+        <v>29.8</v>
+      </c>
+      <c r="M19">
+        <v>19.34</v>
+      </c>
+      <c r="N19">
+        <v>2.83</v>
+      </c>
+      <c r="O19">
+        <v>2.78</v>
+      </c>
+      <c r="P19">
+        <v>171</v>
+      </c>
+      <c r="Q19">
+        <v>462</v>
+      </c>
+      <c r="R19">
+        <v>367</v>
+      </c>
+      <c r="S19">
+        <v>163</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>15</v>
+      </c>
+      <c r="V19">
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <v>12.51</v>
+      </c>
+      <c r="X19">
+        <v>86.9</v>
+      </c>
+      <c r="Y19">
+        <v>24.39</v>
+      </c>
+      <c r="Z19">
+        <v>37</v>
+      </c>
+      <c r="AA19">
+        <v>1019</v>
+      </c>
+      <c r="AB19">
+        <v>13.26</v>
+      </c>
+      <c r="AC19">
+        <v>4241</v>
+      </c>
+      <c r="AD19">
+        <v>100</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>2198</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2197</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20">
+        <v>2197</v>
+      </c>
+      <c r="H20">
+        <v>5349</v>
+      </c>
+      <c r="I20">
+        <v>5349</v>
+      </c>
+      <c r="J20">
+        <v>120</v>
+      </c>
+      <c r="K20">
+        <v>215</v>
+      </c>
+      <c r="L20">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>17.91</v>
+      </c>
+      <c r="N20">
+        <v>2.46</v>
+      </c>
+      <c r="O20">
+        <v>2.35</v>
+      </c>
+      <c r="P20">
+        <v>163</v>
+      </c>
+      <c r="Q20">
+        <v>441</v>
+      </c>
+      <c r="R20">
+        <v>335</v>
+      </c>
+      <c r="S20">
+        <v>179</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>14</v>
+      </c>
+      <c r="V20">
+        <v>0.18</v>
+      </c>
+      <c r="W20">
+        <v>11.66</v>
+      </c>
+      <c r="X20">
+        <v>86.9</v>
+      </c>
+      <c r="Y20">
+        <v>24.39</v>
+      </c>
+      <c r="Z20">
+        <v>37</v>
+      </c>
+      <c r="AA20">
+        <v>1019</v>
+      </c>
+      <c r="AB20">
+        <v>13.26</v>
+      </c>
+      <c r="AC20">
+        <v>4239</v>
+      </c>
+      <c r="AD20">
+        <v>100</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>2197</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="9">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2643</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44586</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21">
+        <v>2643</v>
+      </c>
+      <c r="H21">
+        <v>6838</v>
+      </c>
+      <c r="I21">
+        <v>6838</v>
+      </c>
+      <c r="J21">
+        <v>151</v>
+      </c>
+      <c r="K21">
+        <v>197</v>
+      </c>
+      <c r="L21">
+        <v>21.15</v>
+      </c>
+      <c r="M21">
+        <v>14.31</v>
+      </c>
+      <c r="N21">
+        <v>2.21</v>
+      </c>
+      <c r="O21">
+        <v>2.15</v>
+      </c>
+      <c r="P21">
+        <v>134</v>
+      </c>
+      <c r="Q21">
+        <v>381</v>
+      </c>
+      <c r="R21">
+        <v>348</v>
+      </c>
+      <c r="S21">
+        <v>172</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>17</v>
+      </c>
+      <c r="V21">
+        <v>0.32</v>
+      </c>
+      <c r="W21">
+        <v>12.02</v>
+      </c>
+      <c r="X21">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="Y21">
+        <v>24.7</v>
+      </c>
+      <c r="Z21">
+        <v>37</v>
+      </c>
+      <c r="AA21">
+        <v>1019</v>
+      </c>
+      <c r="AB21">
+        <v>13.17</v>
+      </c>
+      <c r="AC21">
+        <v>5134</v>
+      </c>
+      <c r="AD21">
+        <v>100</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>2643</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="9">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD81"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="34" max="34" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="34" max="34" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -55798,7 +58183,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>629</v>
       </c>
@@ -55902,7 +58287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>625</v>
       </c>
@@ -56006,7 +58391,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>630</v>
       </c>
@@ -56110,7 +58495,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>939</v>
       </c>
@@ -56214,7 +58599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>628</v>
       </c>
@@ -56318,7 +58703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1118</v>
       </c>
@@ -56422,7 +58807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>627</v>
       </c>
@@ -56526,7 +58911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1176</v>
       </c>
@@ -56631,7 +59016,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>487</v>
       </c>
@@ -56735,7 +59120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>842</v>
       </c>
@@ -56839,7 +59224,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>831</v>
       </c>
@@ -56943,7 +59328,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1043</v>
       </c>
@@ -57047,7 +59432,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>626</v>
       </c>
@@ -57151,7 +59536,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>715</v>
       </c>
@@ -57255,7 +59640,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1175</v>
       </c>
@@ -57359,7 +59744,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>714</v>
       </c>
@@ -57463,7 +59848,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>961</v>
       </c>
@@ -57567,7 +59952,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>486</v>
       </c>
@@ -57671,7 +60056,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1122</v>
       </c>
@@ -57775,7 +60160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>899</v>
       </c>
@@ -57879,7 +60264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>101</v>
       </c>
@@ -57986,7 +60371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5226</v>
       </c>
@@ -58093,7 +60478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>808</v>
       </c>
@@ -58200,7 +60585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1225</v>
       </c>
@@ -58307,7 +60692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4041</v>
       </c>
@@ -58414,7 +60799,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>410</v>
       </c>
@@ -58521,7 +60906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>713</v>
       </c>
@@ -58628,7 +61013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>547</v>
       </c>
@@ -58735,7 +61120,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5823</v>
       </c>
@@ -58842,7 +61227,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>945</v>
       </c>
@@ -58949,7 +61334,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4888</v>
       </c>
@@ -59053,7 +61438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1353</v>
       </c>
@@ -59160,7 +61545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5186</v>
       </c>
@@ -59267,7 +61652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4227</v>
       </c>
@@ -59374,7 +61759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3743</v>
       </c>
@@ -59478,7 +61863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2585</v>
       </c>
@@ -59585,7 +61970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2463</v>
       </c>
@@ -59692,7 +62077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>925</v>
       </c>
@@ -59796,7 +62181,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>967</v>
       </c>
@@ -59903,7 +62288,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>574</v>
       </c>
@@ -60007,7 +62392,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>489</v>
       </c>
@@ -60111,7 +62496,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>926</v>
       </c>
@@ -60215,7 +62600,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>549</v>
       </c>
@@ -60319,7 +62704,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>723</v>
       </c>
@@ -60423,7 +62808,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1010</v>
       </c>
@@ -60527,7 +62912,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1011</v>
       </c>
@@ -60631,7 +63016,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>921</v>
       </c>
@@ -60735,7 +63120,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>644</v>
       </c>
@@ -60842,7 +63227,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>643</v>
       </c>
@@ -60949,7 +63334,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1221</v>
       </c>
@@ -61053,7 +63438,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>641</v>
       </c>
@@ -61157,7 +63542,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1008</v>
       </c>
@@ -61261,7 +63646,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>576</v>
       </c>
@@ -61365,7 +63750,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>485</v>
       </c>
@@ -61469,7 +63854,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>943</v>
       </c>
@@ -61573,7 +63958,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>521</v>
       </c>
@@ -61677,7 +64062,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1224</v>
       </c>
@@ -61781,7 +64166,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4180</v>
       </c>
@@ -61885,7 +64270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4314</v>
       </c>
@@ -61989,7 +64374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1640</v>
       </c>
@@ -62096,7 +64481,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1334</v>
       </c>
@@ -62200,7 +64585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1912</v>
       </c>
@@ -62304,7 +64689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5324</v>
       </c>
@@ -62411,7 +64796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1476</v>
       </c>
@@ -62515,7 +64900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1461</v>
       </c>
@@ -62619,7 +65004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5168</v>
       </c>
@@ -62723,7 +65108,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4221</v>
       </c>
@@ -62827,7 +65212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2107</v>
       </c>
@@ -62931,7 +65316,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4576</v>
       </c>
@@ -63035,7 +65420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2106</v>
       </c>
@@ -63139,7 +65524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1423</v>
       </c>
@@ -63243,7 +65628,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2047</v>
       </c>
@@ -63347,7 +65732,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1227</v>
       </c>
@@ -63451,7 +65836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1694</v>
       </c>
@@ -63555,7 +65940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3589</v>
       </c>
@@ -63662,7 +66047,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1149</v>
       </c>
@@ -63766,7 +66151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5133</v>
       </c>
@@ -63876,31 +66261,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD65"/>
+    <sheetView topLeftCell="I52" workbookViewId="0">
+      <selection activeCell="AA81" sqref="AA81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="34" max="34" width="38.83203125" customWidth="1"/>
+    <col min="34" max="34" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -64018,7 +66405,7 @@
       <c r="AQ1" s="10"/>
       <c r="AR1" s="10"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1006</v>
       </c>
@@ -64123,7 +66510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>649</v>
       </c>
@@ -64228,7 +66615,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>647</v>
       </c>
@@ -64333,7 +66720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1546</v>
       </c>
@@ -64438,7 +66825,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1060</v>
       </c>
@@ -64543,7 +66930,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>752</v>
       </c>
@@ -64648,7 +67035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1014</v>
       </c>
@@ -64753,7 +67140,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>746</v>
       </c>
@@ -64858,7 +67245,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>651</v>
       </c>
@@ -64963,7 +67350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>330</v>
       </c>
@@ -65068,7 +67455,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1132</v>
       </c>
@@ -65173,7 +67560,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>328</v>
       </c>
@@ -65278,7 +67665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1058</v>
       </c>
@@ -65383,7 +67770,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>646</v>
       </c>
@@ -65488,7 +67875,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>650</v>
       </c>
@@ -65593,7 +67980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>329</v>
       </c>
@@ -65698,7 +68085,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1007</v>
       </c>
@@ -65803,7 +68190,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1539</v>
       </c>
@@ -65908,7 +68295,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>648</v>
       </c>
@@ -66013,7 +68400,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1057</v>
       </c>
@@ -66118,7 +68505,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>219</v>
       </c>
@@ -66225,7 +68612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6526</v>
       </c>
@@ -66332,7 +68719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2989</v>
       </c>
@@ -66439,7 +68826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3869</v>
       </c>
@@ -66546,7 +68933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1831</v>
       </c>
@@ -66653,7 +69040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5175</v>
       </c>
@@ -66760,7 +69147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4210</v>
       </c>
@@ -66865,7 +69252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5595</v>
       </c>
@@ -66970,7 +69357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4739</v>
       </c>
@@ -67075,7 +69462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6152</v>
       </c>
@@ -67180,7 +69567,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3005</v>
       </c>
@@ -67285,7 +69672,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6275</v>
       </c>
@@ -67390,7 +69777,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2905</v>
       </c>
@@ -67495,7 +69882,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6274</v>
       </c>
@@ -67600,7 +69987,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6203</v>
       </c>
@@ -67705,7 +70092,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6206</v>
       </c>
@@ -67810,7 +70197,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4110</v>
       </c>
@@ -67915,7 +70302,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3911</v>
       </c>
@@ -68020,7 +70407,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5752</v>
       </c>
@@ -68125,7 +70512,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6278</v>
       </c>
@@ -68230,7 +70617,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6169</v>
       </c>
@@ -68335,7 +70722,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3002</v>
       </c>
@@ -68440,7 +70827,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5589</v>
       </c>
@@ -68545,7 +70932,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3058</v>
       </c>
@@ -68650,7 +71037,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3003</v>
       </c>
@@ -68755,7 +71142,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3913</v>
       </c>
@@ -68860,7 +71247,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5303</v>
       </c>
@@ -68965,7 +71352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5067</v>
       </c>
@@ -69070,7 +71457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6243</v>
       </c>
@@ -69175,7 +71562,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5145</v>
       </c>
@@ -69286,32 +71673,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="34" max="34" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="34" max="34" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -69429,7 +71816,7 @@
       <c r="AQ1" s="10"/>
       <c r="AR1" s="10"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>463</v>
       </c>
@@ -69533,7 +71920,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>464</v>
       </c>
@@ -69637,7 +72024,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>465</v>
       </c>
@@ -69741,7 +72128,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>466</v>
       </c>
@@ -69845,7 +72232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>467</v>
       </c>
@@ -69949,7 +72336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -70053,7 +72440,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -70157,7 +72544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -70261,7 +72648,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -70365,7 +72752,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2013</v>
       </c>
@@ -70469,7 +72856,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3589</v>
       </c>
@@ -70573,7 +72960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3590</v>
       </c>
@@ -70677,7 +73064,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3591</v>
       </c>
@@ -70781,7 +73168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3592</v>
       </c>
@@ -70885,7 +73272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3593</v>
       </c>
@@ -70989,7 +73376,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2783</v>
       </c>
@@ -71093,7 +73480,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2663</v>
       </c>
@@ -71197,7 +73584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2493</v>
       </c>
@@ -71301,7 +73688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2275</v>
       </c>
@@ -71405,7 +73792,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2276</v>
       </c>
@@ -71509,7 +73896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>36</v>
       </c>
@@ -71613,7 +74000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>345</v>
       </c>
@@ -71720,7 +74107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>421</v>
       </c>
@@ -71824,7 +74211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>565</v>
       </c>
@@ -71931,7 +74318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>872</v>
       </c>
@@ -72038,7 +74425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>978</v>
       </c>
@@ -72145,7 +74532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1505</v>
       </c>
@@ -72252,7 +74639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1639</v>
       </c>
@@ -72359,7 +74746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1975</v>
       </c>
@@ -72466,7 +74853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2291</v>
       </c>
@@ -72570,7 +74957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2588</v>
       </c>
@@ -72677,7 +75064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2677</v>
       </c>
@@ -72784,7 +75171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2796</v>
       </c>
@@ -72891,7 +75278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3510</v>
       </c>
@@ -72998,7 +75385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3710</v>
       </c>
@@ -73105,7 +75492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6464</v>
       </c>
@@ -73212,7 +75599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6630</v>
       </c>
@@ -73319,7 +75706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7094</v>
       </c>
@@ -73426,7 +75813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8346</v>
       </c>
@@ -73533,7 +75920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8929</v>
       </c>
@@ -73640,7 +76027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2339</v>
       </c>
@@ -73744,7 +76131,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2340</v>
       </c>
@@ -73848,7 +76235,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2341</v>
       </c>
@@ -73952,7 +76339,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2342</v>
       </c>
@@ -74056,7 +76443,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2343</v>
       </c>
@@ -74160,7 +76547,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2159</v>
       </c>
@@ -74264,7 +76651,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2160</v>
       </c>
@@ -74368,7 +76755,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2161</v>
       </c>
@@ -74472,7 +76859,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2163</v>
       </c>
@@ -74576,7 +76963,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1869</v>
       </c>
@@ -74680,7 +77067,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1870</v>
       </c>
@@ -74784,7 +77171,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1871</v>
       </c>
@@ -74888,7 +77275,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1872</v>
       </c>
@@ -74992,7 +77379,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1873</v>
       </c>
@@ -75096,7 +77483,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1874</v>
       </c>
@@ -75200,7 +77587,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1889</v>
       </c>
@@ -75304,7 +77691,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1890</v>
       </c>
@@ -75408,7 +77795,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2189</v>
       </c>
@@ -75512,7 +77899,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2190</v>
       </c>
@@ -75616,7 +78003,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2270</v>
       </c>
@@ -75720,7 +78107,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3512</v>
       </c>
@@ -75824,7 +78211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4153</v>
       </c>
@@ -75928,7 +78315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5052</v>
       </c>
@@ -76035,7 +78422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5484</v>
       </c>
@@ -76139,7 +78526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5830</v>
       </c>
@@ -76243,7 +78630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5872</v>
       </c>
@@ -76347,7 +78734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6300</v>
       </c>
@@ -76451,7 +78838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6427</v>
       </c>
@@ -76558,7 +78945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6429</v>
       </c>
@@ -76665,7 +79052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6458</v>
       </c>
@@ -76769,7 +79156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6460</v>
       </c>
@@ -76873,7 +79260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6563</v>
       </c>
@@ -76977,7 +79364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7184</v>
       </c>
@@ -77081,7 +79468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7988</v>
       </c>
@@ -77185,7 +79572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8117</v>
       </c>
@@ -77289,7 +79676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>9584</v>
       </c>
@@ -77396,7 +79783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>9808</v>
       </c>
@@ -77500,7 +79887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10829</v>
       </c>
@@ -77607,7 +79994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>11270</v>
       </c>
@@ -77711,7 +80098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11844</v>
       </c>
@@ -77821,12 +80208,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
